--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -508,31 +508,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.42073533062119</v>
+        <v>252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1617757158015357</v>
+        <v>0.1895093944814901</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3804645603755596</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2235651277600343</v>
+        <v>0.1864323930634537</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02355090722351158</v>
+        <v>-5.87777777777778</v>
       </c>
     </row>
     <row r="3">
@@ -553,31 +553,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-2.561296417581362</v>
+        <v>194.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01429028970733403</v>
+        <v>0.01792725432044502</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.71695910970084</v>
+        <v>0.3996913580246914</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01952592886264481</v>
+        <v>0.01748761387370319</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.04879932271930945</v>
+        <v>-2.585444444444446</v>
       </c>
     </row>
     <row r="4">
@@ -598,31 +598,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-2.92056384679578</v>
+        <v>186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005344194529239805</v>
+        <v>0.01163445170501903</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7887985861028406</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01303706043754849</v>
+        <v>0.01133439323885829</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.07075657960013337</v>
+        <v>-9.089416666666665</v>
       </c>
     </row>
     <row r="5">
@@ -643,31 +643,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.382671067380349</v>
+        <v>155</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001812941719959682</v>
+        <v>0.001988977628350087</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.9761209096506791</v>
+        <v>0.5216049382716049</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001381353522683426</v>
+        <v>0.00192837068649817</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.07626096617291953</v>
+        <v>-1380.625666666665</v>
       </c>
     </row>
     <row r="6">
@@ -823,31 +823,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-2.040056350097094</v>
+        <v>243</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04700478936066767</v>
+        <v>0.1396266720916429</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.552015090014469</v>
+        <v>0.25</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07733850528302721</v>
+        <v>0.1371845217075572</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.09111677399447277</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="10">
@@ -868,31 +868,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-2.602419537767252</v>
+        <v>216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01231006608391805</v>
+        <v>0.04854570503465683</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7016298769730338</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02650051326347846</v>
+        <v>0.04750893270660872</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1345462739145312</v>
+        <v>-4.448708333333332</v>
       </c>
     </row>
     <row r="11">
@@ -913,31 +913,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-7.012162279674271</v>
+        <v>76</v>
       </c>
       <c r="F11" t="n">
-        <v>4.782149420073158e-09</v>
+        <v>5.58618703577025e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.818874377600107</v>
+        <v>0.7654320987654322</v>
       </c>
       <c r="H11" t="n">
-        <v>4.735338491324015e-07</v>
+        <v>5.348038683522629e-06</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J11" t="b">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1875175429433011</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="12">
@@ -958,31 +958,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-3.727793791512462</v>
+        <v>167</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005218555801638333</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.009914384434814</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001750202724242755</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J12" t="b">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.1912055512541192</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="13">
@@ -1138,31 +1138,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-0.6979777844777127</v>
+        <v>309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4884945203301143</v>
+        <v>0.7901842868705102</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1865335857483325</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5491508560307925</v>
+        <v>0.7831271046098796</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.03354885517086942</v>
+        <v>-5.87546296296297</v>
       </c>
     </row>
     <row r="17">
@@ -1183,31 +1183,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1.312535372038554</v>
+        <v>265.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1969100472863798</v>
+        <v>0.2871994947301779</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3685074856381969</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2197575707217545</v>
+        <v>0.2830647182506413</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.06445210957415204</v>
+        <v>-2.401601851851854</v>
       </c>
     </row>
     <row r="18">
@@ -1228,31 +1228,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7975698431559595</v>
+        <v>338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4288557279335011</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2007182763711934</v>
+        <v>-0.04320987654320985</v>
       </c>
       <c r="H18" t="n">
-        <v>0.536596975321429</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04132915274140314</v>
+        <v>15.09937037037039</v>
       </c>
     </row>
     <row r="19">
@@ -1273,31 +1273,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.915105728703735</v>
+        <v>212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06503972028307781</v>
+        <v>0.04076053620183384</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5659757663492189</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04947418747098153</v>
+        <v>0.03986622195092659</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.09005109482679896</v>
+        <v>-1186.960046296297</v>
       </c>
     </row>
     <row r="20">
@@ -1453,31 +1453,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.672101509091556</v>
+        <v>542</v>
       </c>
       <c r="F23" t="n">
-        <v>3.440385110815671e-05</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G23" t="n">
-        <v>1.312628438325215</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H23" t="n">
-        <v>4.921317643880041e-05</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J23" t="b">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1968147857392661</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="24">
@@ -1498,31 +1498,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.213060623482879</v>
+        <v>577</v>
       </c>
       <c r="F24" t="n">
-        <v>1.988015257385445e-07</v>
+        <v>3.600172181692865e-06</v>
       </c>
       <c r="G24" t="n">
-        <v>1.72462061850773</v>
+        <v>-0.7808641975308641</v>
       </c>
       <c r="H24" t="n">
-        <v>4.708977558998129e-07</v>
+        <v>3.443899808455802e-06</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2630056664299435</v>
+        <v>9.711703703703702</v>
       </c>
     </row>
     <row r="25">
@@ -1543,31 +1543,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.922218507541938</v>
+        <v>562</v>
       </c>
       <c r="F25" t="n">
-        <v>3.404626429586991e-07</v>
+        <v>1.312674343949274e-05</v>
       </c>
       <c r="G25" t="n">
-        <v>1.596441806597118</v>
+        <v>-0.7345679012345678</v>
       </c>
       <c r="H25" t="n">
-        <v>3.46027483077993e-06</v>
+        <v>1.258746709260664e-05</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J25" t="b">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2351150579670525</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="26">
@@ -1588,31 +1588,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>9.195431210759459</v>
+        <v>610</v>
       </c>
       <c r="F26" t="n">
-        <v>3.938398884415367e-12</v>
+        <v>1.616656022567341e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>2.477167756532345</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="H26" t="n">
-        <v>1.031474905488494e-10</v>
+        <v>1.538199871942933e-07</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J26" t="b">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3433005553813771</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="27">
@@ -1768,31 +1768,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.8364361950947</v>
+        <v>648</v>
       </c>
       <c r="F30" t="n">
-        <v>3.830203848719694e-15</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>7.434396126991228</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J30" t="b">
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5870647429275896</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="31">
@@ -1813,31 +1813,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23.89185835600716</v>
+        <v>648</v>
       </c>
       <c r="F31" t="n">
-        <v>5.998009813569039e-19</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>7.288961377188403</v>
+        <v>-1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6253907946104722</v>
+        <v>35.42746296296296</v>
       </c>
     </row>
     <row r="32">
@@ -1858,31 +1858,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5078917913366792</v>
+        <v>310</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6136869571056021</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1296483601814857</v>
+        <v>0.04320987654320985</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6867448430140224</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03690211139260946</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="33">
@@ -1903,31 +1903,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>17.72914232521296</v>
+        <v>648</v>
       </c>
       <c r="F33" t="n">
-        <v>3.780901908695922e-20</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>5.00027447291933</v>
+        <v>-1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5900277052432459</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="34">
@@ -2083,31 +2083,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.120332717731643</v>
+        <v>419</v>
       </c>
       <c r="F37" t="n">
-        <v>0.268448031809806</v>
+        <v>0.0829149018536659</v>
       </c>
       <c r="G37" t="n">
-        <v>0.30531115247613</v>
+        <v>-0.2932098765432098</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3207409623879138</v>
+        <v>0.08129997273561756</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03856296077668364</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="38">
@@ -2128,31 +2128,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.407688819236519</v>
+        <v>554</v>
       </c>
       <c r="F38" t="n">
-        <v>4.505652713056546e-08</v>
+        <v>2.5394276752008e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>1.673962065838065</v>
+        <v>-0.7098765432098766</v>
       </c>
       <c r="H38" t="n">
-        <v>2.225226827579085e-06</v>
+        <v>2.438242870832336e-05</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.2464733659769105</v>
+        <v>12.0933101851852</v>
       </c>
     </row>
     <row r="39">
@@ -2173,31 +2173,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8.073241606713575</v>
+        <v>622</v>
       </c>
       <c r="F39" t="n">
-        <v>4.850711896708886e-10</v>
+        <v>4.789711871151461e-08</v>
       </c>
       <c r="G39" t="n">
-        <v>1.947439481643783</v>
+        <v>-0.9197530864197532</v>
       </c>
       <c r="H39" t="n">
-        <v>2.906487291953752e-07</v>
+        <v>4.548338411176395e-08</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.4107275780491377</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="40">
@@ -2218,31 +2218,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>t-test</t>
+          <t>mannwhitneyu</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>8.98688839844931</v>
+        <v>606</v>
       </c>
       <c r="F40" t="n">
-        <v>4.886684199131047e-12</v>
+        <v>2.399830096728318e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>2.258436254106515</v>
+        <v>-0.8703703703703705</v>
       </c>
       <c r="H40" t="n">
-        <v>5.070133313189729e-09</v>
+        <v>2.284857699028651e-07</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Tukey HSD</t>
+          <t>Dunn</t>
         </is>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3958014944347046</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="41">

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>252</v>
+        <v>469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1895093944814901</v>
+        <v>0.007113408326616479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2222222222222222</v>
+        <v>-0.4475308641975309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1864323930634537</v>
+        <v>0.006917271613933836</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="J2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.87777777777778</v>
+        <v>0.4416666666666647</v>
       </c>
     </row>
     <row r="3">
@@ -548,7 +548,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>194.5</v>
+        <v>103.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01792725432044502</v>
+        <v>1.62479325171163e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3996913580246914</v>
+        <v>0.6805555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01748761387370319</v>
+        <v>1.554290698029134e-05</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.585444444444446</v>
+        <v>-0.5972222222222285</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01163445170501903</v>
+        <v>2.060878491314584e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01133439323885829</v>
+        <v>1.977040408952772e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-9.089416666666665</v>
+        <v>-1.038888888888888</v>
       </c>
     </row>
     <row r="5">
@@ -638,7 +638,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001988977628350087</v>
+        <v>0.1895093944814901</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5216049382716049</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00192837068649817</v>
+        <v>0.1864323930634537</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-1380.625666666665</v>
+        <v>-5.87777777777778</v>
       </c>
     </row>
     <row r="6">
@@ -683,7 +683,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>469</v>
+        <v>252</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007113408326616479</v>
+        <v>0.1895262686605104</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4475308641975309</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006917271613933836</v>
+        <v>0.1864491812199812</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4416666666666647</v>
+        <v>-5.892430555555556</v>
       </c>
     </row>
     <row r="7">
@@ -728,7 +728,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103.5</v>
+        <v>284</v>
       </c>
       <c r="F7" t="n">
-        <v>1.62479325171163e-05</v>
+        <v>0.4685740330133489</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="H7" t="n">
-        <v>1.554290698029134e-05</v>
+        <v>0.462963460870333</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.5972222222222285</v>
+        <v>-3.246805555555561</v>
       </c>
     </row>
     <row r="8">
@@ -773,7 +773,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="F8" t="n">
-        <v>2.060878491314584e-05</v>
+        <v>0.03107944569381346</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7098765432098766</v>
+        <v>0.3641975308641975</v>
       </c>
       <c r="H8" t="n">
-        <v>1.977040408952772e-05</v>
+        <v>0.0303701725753778</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.038888888888888</v>
+        <v>-3.640555555555551</v>
       </c>
     </row>
     <row r="9">
@@ -813,12 +813,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1396266720916429</v>
+        <v>0.01163445170501903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.25</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1371845217075572</v>
+        <v>0.01133439323885829</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="J9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-11.5884259259259</v>
+        <v>-9.089416666666665</v>
       </c>
     </row>
     <row r="10">
@@ -858,12 +858,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04854570503465683</v>
+        <v>0.001988977628350087</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.5216049382716049</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04750893270660872</v>
+        <v>0.00192837068649817</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-4.448708333333332</v>
+        <v>-1380.625666666665</v>
       </c>
     </row>
     <row r="11">
@@ -903,12 +903,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -917,16 +917,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="F11" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7654320987654322</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H11" t="n">
-        <v>5.348038683522629e-06</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -934,10 +934,10 @@
         </is>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-26.00312037037034</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="12">
@@ -948,12 +948,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>167</v>
+        <v>289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004082955523083316</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4845679012345679</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003965978142992611</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-2747.835587962965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7901842868705102</v>
+        <v>0.1396266720916429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7831271046098796</v>
+        <v>0.1371845217075572</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-5.87546296296297</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="17">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>265.5</v>
+        <v>235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2871994947301779</v>
+        <v>0.1043925518872926</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2830647182506413</v>
+        <v>0.1024487548398176</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-2.401601851851854</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="18">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>338</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.2365967689621208</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.04320987654320985</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.2329826757965724</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>15.09937037037039</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="19">
@@ -1263,12 +1263,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04076053620183384</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G19" t="n">
-        <v>0.345679012345679</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03986622195092659</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1186.960046296297</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="20">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4206524329145052</v>
+        <v>5.58618703577025e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1358024691358024</v>
+        <v>0.7654320987654322</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4153321949433842</v>
+        <v>5.348038683522629e-06</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="J20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.601851851851853</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="21">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>206.5</v>
+        <v>167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02659018106922706</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3626543209876543</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02595006209457031</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.272222222222215</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="22">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>217.5</v>
+        <v>354</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05013354622034522</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3287037037037037</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04906084713143692</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1432,23 +1432,23 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.8740740740740733</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>542</v>
+        <v>289</v>
       </c>
       <c r="F23" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.6728395061728396</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.329743910048687e-05</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1474,26 +1474,26 @@
         </is>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>27.66805555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>577</v>
+        <v>368</v>
       </c>
       <c r="F24" t="n">
-        <v>3.600172181692865e-06</v>
+        <v>0.4206524329145052</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.7808641975308641</v>
+        <v>-0.1358024691358024</v>
       </c>
       <c r="H24" t="n">
-        <v>3.443899808455802e-06</v>
+        <v>0.4153321949433842</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1519,26 +1519,26 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>9.711703703703702</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>562</v>
+        <v>205.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>0.02532331028336432</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.7345679012345678</v>
+        <v>0.3657407407407407</v>
       </c>
       <c r="H25" t="n">
-        <v>1.258746709260664e-05</v>
+        <v>0.02470970160400244</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1567,23 +1567,23 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>27.45413425925926</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>610</v>
+        <v>216.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>0.0480074779741179</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.882716049382716</v>
+        <v>0.3317901234567902</v>
       </c>
       <c r="H26" t="n">
-        <v>1.538199871942933e-07</v>
+        <v>0.04697317872889967</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1612,23 +1612,23 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>4737.355986111112</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6879485924171306</v>
+        <v>0.7901842868705102</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06790123456790131</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6810864563418655</v>
+        <v>0.7831271046098796</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1657,23 +1657,23 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2388888888888889</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>400.5</v>
+        <v>309</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1573995384208263</v>
+        <v>0.7901881922098288</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2361111111111112</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1546858313716771</v>
+        <v>0.783131134596324</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1702,23 +1702,23 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3648148148148103</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1727,16 +1727,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7198789070337386</v>
+        <v>0.7342603423969764</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06172839506172845</v>
+        <v>0.05864197530864201</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7130104102845825</v>
+        <v>0.7273607010490569</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1747,23 +1747,23 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1259259259259267</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>648</v>
+        <v>277</v>
       </c>
       <c r="F30" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.3935223899263479</v>
       </c>
       <c r="G30" t="n">
-        <v>-1</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="H30" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.3884555497257653</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1789,26 +1789,26 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>135.0351851851852</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>648</v>
+        <v>338</v>
       </c>
       <c r="F31" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G31" t="n">
-        <v>-1</v>
+        <v>-0.04320987654320985</v>
       </c>
       <c r="H31" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1834,26 +1834,26 @@
         </is>
       </c>
       <c r="J31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>35.42746296296296</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>310</v>
+        <v>212</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.04076053620183384</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04320987654320985</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.03986622195092659</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1879,26 +1879,26 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.2727268518518429</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>648</v>
+        <v>354</v>
       </c>
       <c r="F33" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G33" t="n">
-        <v>-1</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H33" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1924,26 +1924,26 @@
         </is>
       </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>12919.49476388889</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>IPI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="F34" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8580246913580247</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.99704231749521e-08</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.22037037037037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1983,12 +1983,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>610</v>
+        <v>346</v>
       </c>
       <c r="F35" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>0.6879485924171306</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.882716049382716</v>
+        <v>-0.06790123456790131</v>
       </c>
       <c r="H35" t="n">
-        <v>1.114314087167554e-07</v>
+        <v>0.6810864563418655</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.812962962962967</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -2028,12 +2028,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>604.5</v>
+        <v>400.5</v>
       </c>
       <c r="F36" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>0.1573995384208263</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8657407407407407</v>
+        <v>-0.2361111111111112</v>
       </c>
       <c r="H36" t="n">
-        <v>2.154434697158797e-07</v>
+        <v>0.1546858313716771</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7.033333333333337</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="37">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0829149018536659</v>
+        <v>0.7198789070337386</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2932098765432098</v>
+        <v>-0.06172839506172845</v>
       </c>
       <c r="H37" t="n">
-        <v>0.08129997273561756</v>
+        <v>0.7130104102845825</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>11.29722222222227</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="38">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F38" t="n">
-        <v>2.5394276752008e-05</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7098765432098766</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H38" t="n">
-        <v>2.438242870832336e-05</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>12.0933101851852</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="39">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>622</v>
+        <v>543</v>
       </c>
       <c r="F39" t="n">
-        <v>4.789711871151461e-08</v>
+        <v>6.088790825143172e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.9197530864197532</v>
+        <v>-0.6759259259259258</v>
       </c>
       <c r="H39" t="n">
-        <v>4.548338411176395e-08</v>
+        <v>5.856539985641123e-05</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>68.56191666666666</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="40">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>606</v>
+        <v>523</v>
       </c>
       <c r="F40" t="n">
-        <v>2.399830096728318e-07</v>
+        <v>0.0002701550280446244</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.8703703703703705</v>
+        <v>-0.6141975308641976</v>
       </c>
       <c r="H40" t="n">
-        <v>2.284857699028651e-07</v>
+        <v>0.0002606828218029942</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>6741.810004629631</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="41">
@@ -2253,12 +2253,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>388.5</v>
+        <v>571</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2157244737323789</v>
+        <v>6.093290260793157e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1990740740740742</v>
+        <v>-0.7623456790123457</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2121596223800503</v>
+        <v>5.834467790818184e-06</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4601851851851855</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="42">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>417.5</v>
+        <v>562</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07830439278543458</v>
+        <v>1.312674343949274e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2885802469135803</v>
+        <v>-0.7345679012345678</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07671449845681758</v>
+        <v>1.258746709260664e-05</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1.364814814814824</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="43">
@@ -2343,41 +2343,1121 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>610</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.616656022567341e-07</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.882716049382716</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.538199871942933e-07</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4737.355986111112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6894111450834837</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.07093425605536341</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6820658875777864</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>289</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>46</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.11692997069081e-08</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.8580246913580247</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.99704231749521e-08</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.22037037037037</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>610</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.172428960309931e-07</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.882716049382716</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.114314087167554e-07</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5.812962962962967</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>difference</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>604.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.263896817511685e-07</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8657407407407407</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.154434697158797e-07</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7.033333333333337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>648</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>135.0351851851852</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>648</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>133.8465046296296</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>648</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>120.0800231481481</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>648</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.53109259259259</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>310</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8043534959231337</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.04320987654320985</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.7972624975694652</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.2727268518518429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>648</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12919.49476388889</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.6894111450834837</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.07093425605536341</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6820658875777864</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>289</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>May20</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2157244737323789</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.1990740740740742</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2121596223800503</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.4601851851851855</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.07830439278543458</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.2885802469135803</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.07671449845681758</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.364814814814824</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
         <v>386.5</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F59" t="n">
         <v>0.2524303238515103</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G59" t="n">
         <v>-0.1929012345679013</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H59" t="n">
         <v>0.2486248966585782</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.9046296296296248</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>peakValue</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>419</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0829149018536659</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.2932098765432098</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.08129997273561756</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.29722222222227</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>414</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1005338647219968</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.2777777777777777</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.09864761042929915</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11.00743518518519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>409</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1210158050201267</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.2623456790123457</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.1188311072505256</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6.739564814814827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>557</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.987997424299874e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.7191358024691359</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.907864721732255e-05</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>17.98193518518521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>622</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.789711871151461e-08</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.9197530864197532</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.548338411176395e-08</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>68.56191666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>606</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.399830096728318e-07</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.8703703703703705</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.284857699028651e-07</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6741.810004629631</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>309.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6894111450834837</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.07093425605536341</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.6820658875777864</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>IPI</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>289</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,12 +948,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,27 +962,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>289</v>
+        <v>479.5</v>
       </c>
       <c r="F12" t="n">
+        <v>0.003827183649254287</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.4799382716049383</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.003715057741290047</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>479.5</v>
+        <v>364.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003827183649254287</v>
+        <v>0.4186366540515651</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4799382716049383</v>
+        <v>-0.125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003715057741290047</v>
+        <v>0.4128442490572918</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.023148148148147</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="14">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>364.5</v>
+        <v>236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4186366540515651</v>
+        <v>0.1066708104522296</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.125</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4128442490572918</v>
+        <v>0.1046838410286281</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.002777777777776</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1066708104522296</v>
+        <v>0.1396266720916429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2716049382716049</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1046838410286281</v>
+        <v>0.1371845217075572</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="16">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1396266720916429</v>
+        <v>0.1043925518872926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1371845217075572</v>
+        <v>0.1024487548398176</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1043925518872926</v>
+        <v>0.2365967689621208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2746913580246914</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1024487548398176</v>
+        <v>0.2329826757965724</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.07203703703703</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="18">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2365967689621208</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2006172839506173</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2329826757965724</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.038657407407385</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="19">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1005338647219968</v>
+        <v>5.58618703577025e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.7654320987654322</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09864761042929915</v>
+        <v>5.348038683522629e-06</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-5.802018518518516</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F20" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7654320987654322</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H20" t="n">
-        <v>5.348038683522629e-06</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-26.00312037037034</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="21">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004082955523083316</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4845679012345679</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003965978142992611</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-2747.835587962965</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="22">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F22" t="n">
-        <v>0.197458292008364</v>
+        <v>0.4206524329145052</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2249134948096885</v>
+        <v>-0.1358024691358024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.4153321949433842</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.896764705882351</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="23">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1457,27 +1457,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>289</v>
+        <v>205.5</v>
       </c>
       <c r="F23" t="n">
+        <v>0.02532331028336432</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3657407407407407</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02470970160400244</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="24">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>368</v>
+        <v>216.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4206524329145052</v>
+        <v>0.0480074779741179</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1358024691358024</v>
+        <v>0.3317901234567902</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4153321949433842</v>
+        <v>0.04697317872889967</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.601851851851853</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>205.5</v>
+        <v>309</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02532331028336432</v>
+        <v>0.7901842868705102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3657407407407407</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02470970160400244</v>
+        <v>0.7831271046098796</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="26">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>216.5</v>
+        <v>309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0480074779741179</v>
+        <v>0.7901881922098288</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3317901234567902</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04697317872889967</v>
+        <v>0.783131134596324</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.340740740740742</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="27">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7901842868705102</v>
+        <v>0.7342603423969764</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.05864197530864201</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7831271046098796</v>
+        <v>0.7273607010490569</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="28">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7901881922098288</v>
+        <v>0.3935223899263479</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="H28" t="n">
-        <v>0.783131134596324</v>
+        <v>0.3884555497257653</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.075449074074072</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="29">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1727,16 +1727,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7342603423969764</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05864197530864201</v>
+        <v>-0.04320987654320985</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7273607010490569</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.279842592592587</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="30">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3935223899263479</v>
+        <v>0.04076053620183384</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1450617283950617</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3884555497257653</v>
+        <v>0.03986622195092659</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.655694444444443</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="31">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04320987654320985</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>17.79075925925926</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04076053620183384</v>
+        <v>0.6879485924171306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.345679012345679</v>
+        <v>-0.06790123456790131</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03986622195092659</v>
+        <v>0.6810864563418655</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1879,26 +1879,26 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-1180.509990740742</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>354</v>
+        <v>400.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.197458292008364</v>
+        <v>0.1573995384208263</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.2249134948096885</v>
+        <v>-0.2361111111111112</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.1546858313716771</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1927,23 +1927,23 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.896764705882351</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.7198789070337386</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.06172839506172845</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.7130104102845825</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="35">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6879485924171306</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06790123456790131</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6810864563418655</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2388888888888889</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="36">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>400.5</v>
+        <v>543</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1573995384208263</v>
+        <v>6.088790825143172e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2361111111111112</v>
+        <v>-0.6759259259259258</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1546858313716771</v>
+        <v>5.856539985641123e-05</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3648148148148103</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="37">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7198789070337386</v>
+        <v>0.0002701550280446244</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06172839506172845</v>
+        <v>-0.6141975308641976</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7130104102845825</v>
+        <v>0.0002606828218029942</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1259259259259267</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="38">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="F38" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>6.093290260793157e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6728395061728396</v>
+        <v>-0.7623456790123457</v>
       </c>
       <c r="H38" t="n">
-        <v>6.329743910048687e-05</v>
+        <v>5.834467790818184e-06</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>27.66805555555555</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="39">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F39" t="n">
-        <v>6.088790825143172e-05</v>
+        <v>1.312674343949274e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.6759259259259258</v>
+        <v>-0.7345679012345678</v>
       </c>
       <c r="H39" t="n">
-        <v>5.856539985641123e-05</v>
+        <v>1.258746709260664e-05</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>26.60733796296294</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="40">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0002701550280446244</v>
+        <v>1.616656022567341e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6141975308641976</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002606828218029942</v>
+        <v>1.538199871942933e-07</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>22.35249074074073</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="41">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>571</v>
+        <v>309.5</v>
       </c>
       <c r="F41" t="n">
-        <v>6.093290260793157e-06</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.7623456790123457</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H41" t="n">
-        <v>5.834467790818184e-06</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>14.11329629629631</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="42">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>562</v>
+        <v>46</v>
       </c>
       <c r="F42" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>2.11692997069081e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.7345679012345678</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="H42" t="n">
-        <v>1.258746709260664e-05</v>
+        <v>1.99704231749521e-08</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>27.45413425925926</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="43">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2360,13 +2360,13 @@
         <v>610</v>
       </c>
       <c r="F43" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>1.172428960309931e-07</v>
       </c>
       <c r="G43" t="n">
         <v>-0.882716049382716</v>
       </c>
       <c r="H43" t="n">
-        <v>1.538199871942933e-07</v>
+        <v>1.114314087167554e-07</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>4737.355986111112</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="44">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>309.5</v>
+        <v>604.5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6894111450834837</v>
+        <v>2.263896817511685e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.8657407407407407</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6820658875777864</v>
+        <v>2.154434697158797e-07</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.1967647058823534</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="45">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2447,27 +2447,27 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>289</v>
+        <v>648</v>
       </c>
       <c r="F45" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="46">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46</v>
+        <v>648</v>
       </c>
       <c r="F46" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8580246913580247</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.99704231749521e-08</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.22037037037037</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="47">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2537,16 +2537,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="F47" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.882716049382716</v>
+        <v>-1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.114314087167554e-07</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>5.812962962962967</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="48">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>604.5</v>
+        <v>648</v>
       </c>
       <c r="F48" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.8657407407407407</v>
+        <v>-1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.154434697158797e-07</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>7.033333333333337</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="49">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>648</v>
+        <v>310</v>
       </c>
       <c r="F49" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G49" t="n">
-        <v>-1</v>
+        <v>0.04320987654320985</v>
       </c>
       <c r="H49" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>135.0351851851852</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="50">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>133.8465046296296</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="51">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2717,16 +2717,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>648</v>
+        <v>309.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G51" t="n">
-        <v>-1</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H51" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="J51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>120.0800231481481</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="52">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2762,16 +2762,16 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>648</v>
+        <v>388.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.2157244737323789</v>
       </c>
       <c r="G52" t="n">
-        <v>-1</v>
+        <v>-0.1990740740740742</v>
       </c>
       <c r="H52" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.2121596223800503</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>53.53109259259259</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="53">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>310</v>
+        <v>417.5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.07830439278543458</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04320987654320985</v>
+        <v>-0.2885802469135803</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.07671449845681758</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2727268518518429</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="54">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>648</v>
+        <v>386.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.2524303238515103</v>
       </c>
       <c r="G54" t="n">
-        <v>-1</v>
+        <v>-0.1929012345679013</v>
       </c>
       <c r="H54" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.2486248966585782</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>12919.49476388889</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="55">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>309.5</v>
+        <v>419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6894111450834837</v>
+        <v>0.0829149018536659</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.2932098765432098</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6820658875777864</v>
+        <v>0.08129997273561756</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1967647058823534</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="56">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IPI</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>11.00743518518519</v>
       </c>
     </row>
     <row r="57">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>388.5</v>
+        <v>409</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2157244737323789</v>
+        <v>0.1210158050201267</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1990740740740742</v>
+        <v>-0.2623456790123457</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2121596223800503</v>
+        <v>0.1188311072505256</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4601851851851855</v>
+        <v>6.739564814814827</v>
       </c>
     </row>
     <row r="58">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>417.5</v>
+        <v>557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07830439278543458</v>
+        <v>1.987997424299874e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2885802469135803</v>
+        <v>-0.7191358024691359</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07671449845681758</v>
+        <v>1.907864721732255e-05</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1.364814814814824</v>
+        <v>17.98193518518521</v>
       </c>
     </row>
     <row r="59">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>386.5</v>
+        <v>622</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2524303238515103</v>
+        <v>4.789711871151461e-08</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1929012345679013</v>
+        <v>-0.9197530864197532</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2486248966585782</v>
+        <v>4.548338411176395e-08</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9046296296296248</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="60">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3122,16 +3122,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>419</v>
+        <v>606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0829149018536659</v>
+        <v>2.399830096728318e-07</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2932098765432098</v>
+        <v>-0.8703703703703705</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08129997273561756</v>
+        <v>2.284857699028651e-07</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>11.29722222222227</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="61">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>414</v>
+        <v>309.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1005338647219968</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09864761042929915</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3187,277 +3187,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>11.00743518518519</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>409</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.1210158050201267</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.2623456790123457</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.1188311072505256</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6.739564814814827</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>557</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.987997424299874e-05</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0.7191358024691359</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.907864721732255e-05</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J63" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>17.98193518518521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>622</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4.789711871151461e-08</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-0.9197530864197532</v>
-      </c>
-      <c r="H64" t="n">
-        <v>4.548338411176395e-08</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>68.56191666666666</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>606</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.399830096728318e-07</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-0.8703703703703705</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.284857699028651e-07</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>6741.810004629631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>309.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.6894111450834837</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-0.07093425605536341</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.6820658875777864</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
         <v>-0.1967647058823534</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>IPI</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>289</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,12 +948,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>479.5</v>
+        <v>289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003827183649254287</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4799382716049383</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003715057741290047</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1.023148148148147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>364.5</v>
+        <v>479.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4186366540515651</v>
+        <v>0.003827183649254287</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.125</v>
+        <v>-0.4799382716049383</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4128442490572918</v>
+        <v>0.003715057741290047</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.002777777777776</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="14">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>236</v>
+        <v>364.5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1066708104522296</v>
+        <v>0.4186366540515651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2716049382716049</v>
+        <v>-0.125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1046838410286281</v>
+        <v>0.4128442490572918</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.02037037037036882</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1396266720916429</v>
+        <v>0.1066708104522296</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1371845217075572</v>
+        <v>0.1046838410286281</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-11.5884259259259</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="16">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1043925518872926</v>
+        <v>0.1396266720916429</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2746913580246914</v>
+        <v>0.25</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1024487548398176</v>
+        <v>0.1371845217075572</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.07203703703703</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2365967689621208</v>
+        <v>0.1043925518872926</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2006172839506173</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2329826757965724</v>
+        <v>0.1024487548398176</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.038657407407385</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="18">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1005338647219968</v>
+        <v>0.2365967689621208</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09864761042929915</v>
+        <v>0.2329826757965724</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.802018518518516</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="19">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="F19" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7654320987654322</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H19" t="n">
-        <v>5.348038683522629e-06</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-26.00312037037034</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004082955523083316</v>
+        <v>5.58618703577025e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4845679012345679</v>
+        <v>0.7654320987654322</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003965978142992611</v>
+        <v>5.348038683522629e-06</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-2747.835587962965</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="21">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="F21" t="n">
-        <v>0.197458292008364</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2249134948096885</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="J21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>3.896764705882351</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="22">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4206524329145052</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1358024691358024</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4153321949433842</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.601851851851853</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="23">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>205.5</v>
+        <v>289</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02532331028336432</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3657407407407407</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02470970160400244</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.7388888888888872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>216.5</v>
+        <v>368</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0480074779741179</v>
+        <v>0.4206524329145052</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3317901234567902</v>
+        <v>-0.1358024691358024</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04697317872889967</v>
+        <v>0.4153321949433842</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.340740740740742</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>309</v>
+        <v>205.5</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7901842868705102</v>
+        <v>0.02532331028336432</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.3657407407407407</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7831271046098796</v>
+        <v>0.02470970160400244</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="J25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.881018518518545</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="26">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>309</v>
+        <v>216.5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7901881922098288</v>
+        <v>0.0480074779741179</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.3317901234567902</v>
       </c>
       <c r="H26" t="n">
-        <v>0.783131134596324</v>
+        <v>0.04697317872889967</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.075449074074072</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="27">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7342603423969764</v>
+        <v>0.7901842868705102</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05864197530864201</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7273607010490569</v>
+        <v>0.7831271046098796</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.279842592592587</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="28">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3935223899263479</v>
+        <v>0.7901881922098288</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1450617283950617</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3884555497257653</v>
+        <v>0.783131134596324</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.655694444444443</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="29">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1727,16 +1727,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.7342603423969764</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04320987654320985</v>
+        <v>0.05864197530864201</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.7273607010490569</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>17.79075925925926</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="30">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04076053620183384</v>
+        <v>0.3935223899263479</v>
       </c>
       <c r="G30" t="n">
-        <v>0.345679012345679</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03986622195092659</v>
+        <v>0.3884555497257653</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-1180.509990740742</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="31">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="F31" t="n">
-        <v>0.197458292008364</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2249134948096885</v>
+        <v>-0.04320987654320985</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.896764705882351</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6879485924171306</v>
+        <v>0.04076053620183384</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.06790123456790131</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6810864563418655</v>
+        <v>0.03986622195092659</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1879,26 +1879,26 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2388888888888889</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>400.5</v>
+        <v>354</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1573995384208263</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.2361111111111112</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1546858313716771</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1927,23 +1927,23 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3648148148148103</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7198789070337386</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.06172839506172845</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7130104102845825</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1259259259259267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>542</v>
+        <v>346</v>
       </c>
       <c r="F35" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>0.6879485924171306</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6728395061728396</v>
+        <v>-0.06790123456790131</v>
       </c>
       <c r="H35" t="n">
-        <v>6.329743910048687e-05</v>
+        <v>0.6810864563418655</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>27.66805555555555</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="36">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>543</v>
+        <v>400.5</v>
       </c>
       <c r="F36" t="n">
-        <v>6.088790825143172e-05</v>
+        <v>0.1573995384208263</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.6759259259259258</v>
+        <v>-0.2361111111111112</v>
       </c>
       <c r="H36" t="n">
-        <v>5.856539985641123e-05</v>
+        <v>0.1546858313716771</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="J36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.60733796296294</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="37">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>523</v>
+        <v>344</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0002701550280446244</v>
+        <v>0.7198789070337386</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.6141975308641976</v>
+        <v>-0.06172839506172845</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0002606828218029942</v>
+        <v>0.7130104102845825</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.35249074074073</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="38">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="F38" t="n">
-        <v>6.093290260793157e-06</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7623456790123457</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H38" t="n">
-        <v>5.834467790818184e-06</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>14.11329629629631</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="39">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="F39" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>6.088790825143172e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.7345679012345678</v>
+        <v>-0.6759259259259258</v>
       </c>
       <c r="H39" t="n">
-        <v>1.258746709260664e-05</v>
+        <v>5.856539985641123e-05</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>27.45413425925926</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="40">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>610</v>
+        <v>523</v>
       </c>
       <c r="F40" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>0.0002701550280446244</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.882716049382716</v>
+        <v>-0.6141975308641976</v>
       </c>
       <c r="H40" t="n">
-        <v>1.538199871942933e-07</v>
+        <v>0.0002606828218029942</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>4737.355986111112</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="41">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>309.5</v>
+        <v>571</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6894111450834837</v>
+        <v>6.093290260793157e-06</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.7623456790123457</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6820658875777864</v>
+        <v>5.834467790818184e-06</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1967647058823534</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="42">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46</v>
+        <v>562</v>
       </c>
       <c r="F42" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>1.312674343949274e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8580246913580247</v>
+        <v>-0.7345679012345678</v>
       </c>
       <c r="H42" t="n">
-        <v>1.99704231749521e-08</v>
+        <v>1.258746709260664e-05</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.22037037037037</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="43">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2360,13 +2360,13 @@
         <v>610</v>
       </c>
       <c r="F43" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>1.616656022567341e-07</v>
       </c>
       <c r="G43" t="n">
         <v>-0.882716049382716</v>
       </c>
       <c r="H43" t="n">
-        <v>1.114314087167554e-07</v>
+        <v>1.538199871942933e-07</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>5.812962962962967</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="44">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>604.5</v>
+        <v>309.5</v>
       </c>
       <c r="F44" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.8657407407407407</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H44" t="n">
-        <v>2.154434697158797e-07</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>7.033333333333337</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="45">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2447,16 +2447,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>648</v>
+        <v>289</v>
       </c>
       <c r="F45" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2464,10 +2464,10 @@
         </is>
       </c>
       <c r="J45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>135.0351851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>648</v>
+        <v>46</v>
       </c>
       <c r="F46" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>2.11692997069081e-08</v>
       </c>
       <c r="G46" t="n">
-        <v>-1</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="H46" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>1.99704231749521e-08</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>133.8465046296296</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="47">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2537,16 +2537,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="F47" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>1.172428960309931e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>-1</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="H47" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>1.114314087167554e-07</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>120.0800231481481</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="48">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>648</v>
+        <v>604.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>2.263896817511685e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>-1</v>
+        <v>-0.8657407407407407</v>
       </c>
       <c r="H48" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>2.154434697158797e-07</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>53.53109259259259</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="49">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>310</v>
+        <v>648</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8043534959231337</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04320987654320985</v>
+        <v>-1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7972624975694652</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="J49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.2727268518518429</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="50">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>12919.49476388889</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="51">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2717,16 +2717,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>309.5</v>
+        <v>648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6894111450834837</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6820658875777864</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1967647058823534</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="52">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2762,16 +2762,16 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>388.5</v>
+        <v>648</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2157244737323789</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1990740740740742</v>
+        <v>-1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2121596223800503</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4601851851851855</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="53">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>417.5</v>
+        <v>310</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07830439278543458</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2885802469135803</v>
+        <v>0.04320987654320985</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07671449845681758</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1.364814814814824</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="54">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>386.5</v>
+        <v>648</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2524303238515103</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1929012345679013</v>
+        <v>-1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2486248966585782</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9046296296296248</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="55">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>419</v>
+        <v>309.5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0829149018536659</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2932098765432098</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08129997273561756</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>11.29722222222227</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="56">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1005338647219968</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2777777777777777</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.09864761042929915</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>11.00743518518519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>409</v>
+        <v>388.5</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1210158050201267</v>
+        <v>0.2157244737323789</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2623456790123457</v>
+        <v>-0.1990740740740742</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1188311072505256</v>
+        <v>0.2121596223800503</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>6.739564814814827</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="58">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>557</v>
+        <v>417.5</v>
       </c>
       <c r="F58" t="n">
-        <v>1.987997424299874e-05</v>
+        <v>0.07830439278543458</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7191358024691359</v>
+        <v>-0.2885802469135803</v>
       </c>
       <c r="H58" t="n">
-        <v>1.907864721732255e-05</v>
+        <v>0.07671449845681758</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="J58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>17.98193518518521</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="59">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>622</v>
+        <v>386.5</v>
       </c>
       <c r="F59" t="n">
-        <v>4.789711871151461e-08</v>
+        <v>0.2524303238515103</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.9197530864197532</v>
+        <v>-0.1929012345679013</v>
       </c>
       <c r="H59" t="n">
-        <v>4.548338411176395e-08</v>
+        <v>0.2486248966585782</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="J59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>68.56191666666666</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="60">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3122,16 +3122,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>606</v>
+        <v>419</v>
       </c>
       <c r="F60" t="n">
-        <v>2.399830096728318e-07</v>
+        <v>0.0829149018536659</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.8703703703703705</v>
+        <v>-0.2932098765432098</v>
       </c>
       <c r="H60" t="n">
-        <v>2.284857699028651e-07</v>
+        <v>0.08129997273561756</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>6741.810004629631</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="61">
@@ -3158,36 +3158,306 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>414</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1005338647219968</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.2777777777777777</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.09864761042929915</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11.00743518518519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>409</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1210158050201267</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.2623456790123457</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.1188311072505256</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6.739564814814827</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>557</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.987997424299874e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.7191358024691359</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.907864721732255e-05</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>17.98193518518521</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>622</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.789711871151461e-08</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.9197530864197532</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.548338411176395e-08</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>68.56191666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>606</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.399830096728318e-07</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.8703703703703705</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.284857699028651e-07</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6741.810004629631</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>percentPPI</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>309.5</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F66" t="n">
         <v>0.6894111450834837</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G66" t="n">
         <v>-0.07093425605536341</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H66" t="n">
         <v>0.6820658875777864</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
         <v>-0.1967647058823534</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>mannwhitneyu</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>289</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -948,12 +948,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -962,27 +962,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>289</v>
+        <v>479.5</v>
       </c>
       <c r="F12" t="n">
+        <v>0.003827183649254287</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.4799382716049383</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.003715057741290047</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.023148148148147</v>
       </c>
     </row>
     <row r="13">
@@ -998,7 +998,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>479.5</v>
+        <v>364.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003827183649254287</v>
+        <v>0.4186366540515651</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4799382716049383</v>
+        <v>-0.125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003715057741290047</v>
+        <v>0.4128442490572918</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.023148148148147</v>
+        <v>1.002777777777776</v>
       </c>
     </row>
     <row r="14">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>364.5</v>
+        <v>236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4186366540515651</v>
+        <v>0.1066708104522296</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.125</v>
+        <v>0.2716049382716049</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4128442490572918</v>
+        <v>0.1046838410286281</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.002777777777776</v>
+        <v>-0.02037037037036882</v>
       </c>
     </row>
     <row r="15">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1066708104522296</v>
+        <v>0.1396266720916429</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2716049382716049</v>
+        <v>0.25</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1046838410286281</v>
+        <v>0.1371845217075572</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-11.5884259259259</v>
       </c>
     </row>
     <row r="16">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1396266720916429</v>
+        <v>0.1043925518872926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.2746913580246914</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1371845217075572</v>
+        <v>0.1024487548398176</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.07203703703703</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1043925518872926</v>
+        <v>0.2365967689621208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2746913580246914</v>
+        <v>0.2006172839506173</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1024487548398176</v>
+        <v>0.2329826757965724</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.07203703703703</v>
+        <v>-8.038657407407385</v>
       </c>
     </row>
     <row r="18">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2365967689621208</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2006172839506173</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2329826757965724</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-8.038657407407385</v>
+        <v>-5.802018518518516</v>
       </c>
     </row>
     <row r="19">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1005338647219968</v>
+        <v>5.58618703577025e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.7654320987654322</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09864761042929915</v>
+        <v>5.348038683522629e-06</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-5.802018518518516</v>
+        <v>-26.00312037037034</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="F20" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7654320987654322</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H20" t="n">
-        <v>5.348038683522629e-06</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-26.00312037037034</v>
+        <v>-2747.835587962965</v>
       </c>
     </row>
     <row r="21">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>167</v>
+        <v>354</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004082955523083316</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4845679012345679</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003965978142992611</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>-2747.835587962965</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="22">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="F22" t="n">
-        <v>0.197458292008364</v>
+        <v>0.4206524329145052</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2249134948096885</v>
+        <v>-0.1358024691358024</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.4153321949433842</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.896764705882351</v>
+        <v>0.601851851851853</v>
       </c>
     </row>
     <row r="23">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1457,27 +1457,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>289</v>
+        <v>205.5</v>
       </c>
       <c r="F23" t="n">
+        <v>0.02532331028336432</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3657407407407407</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02470970160400244</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.7388888888888872</v>
       </c>
     </row>
     <row r="24">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>368</v>
+        <v>216.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4206524329145052</v>
+        <v>0.0480074779741179</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1358024691358024</v>
+        <v>0.3317901234567902</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4153321949433842</v>
+        <v>0.04697317872889967</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.601851851851853</v>
+        <v>-1.340740740740742</v>
       </c>
     </row>
     <row r="25">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>205.5</v>
+        <v>309</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02532331028336432</v>
+        <v>0.7901842868705102</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3657407407407407</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02470970160400244</v>
+        <v>0.7831271046098796</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="J25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-5.881018518518545</v>
       </c>
     </row>
     <row r="26">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>216.5</v>
+        <v>309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0480074779741179</v>
+        <v>0.7901881922098288</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3317901234567902</v>
+        <v>0.04629629629629628</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04697317872889967</v>
+        <v>0.783131134596324</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.340740740740742</v>
+        <v>-6.075449074074072</v>
       </c>
     </row>
     <row r="27">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7901842868705102</v>
+        <v>0.7342603423969764</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.05864197530864201</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7831271046098796</v>
+        <v>0.7273607010490569</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.279842592592587</v>
       </c>
     </row>
     <row r="28">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7901881922098288</v>
+        <v>0.3935223899263479</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.1450617283950617</v>
       </c>
       <c r="H28" t="n">
-        <v>0.783131134596324</v>
+        <v>0.3884555497257653</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.075449074074072</v>
+        <v>-3.655694444444443</v>
       </c>
     </row>
     <row r="29">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1727,16 +1727,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7342603423969764</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05864197530864201</v>
+        <v>-0.04320987654320985</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7273607010490569</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.279842592592587</v>
+        <v>17.79075925925926</v>
       </c>
     </row>
     <row r="30">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3935223899263479</v>
+        <v>0.04076053620183384</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1450617283950617</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3884555497257653</v>
+        <v>0.03986622195092659</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.655694444444443</v>
+        <v>-1180.509990740742</v>
       </c>
     </row>
     <row r="31">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.197458292008364</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04320987654320985</v>
+        <v>-0.2249134948096885</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.1940064823252164</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1837,23 +1837,23 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>17.79075925925926</v>
+        <v>3.896764705882351</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04076053620183384</v>
+        <v>0.6879485924171306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.345679012345679</v>
+        <v>-0.06790123456790131</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03986622195092659</v>
+        <v>0.6810864563418655</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1879,26 +1879,26 @@
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-1180.509990740742</v>
+        <v>0.2388888888888889</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>354</v>
+        <v>400.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.197458292008364</v>
+        <v>0.1573995384208263</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.2249134948096885</v>
+        <v>-0.2361111111111112</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.1546858313716771</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1927,23 +1927,23 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>3.896764705882351</v>
+        <v>0.3648148148148103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0.7198789070337386</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.06172839506172845</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.7130104102845825</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.1259259259259267</v>
       </c>
     </row>
     <row r="35">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6879485924171306</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06790123456790131</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6810864563418655</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2388888888888889</v>
+        <v>27.66805555555555</v>
       </c>
     </row>
     <row r="36">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>400.5</v>
+        <v>543</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1573995384208263</v>
+        <v>6.088790825143172e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2361111111111112</v>
+        <v>-0.6759259259259258</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1546858313716771</v>
+        <v>5.856539985641123e-05</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="J36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.3648148148148103</v>
+        <v>26.60733796296294</v>
       </c>
     </row>
     <row r="37">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7198789070337386</v>
+        <v>0.0002701550280446244</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06172839506172845</v>
+        <v>-0.6141975308641976</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7130104102845825</v>
+        <v>0.0002606828218029942</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2104,10 +2104,10 @@
         </is>
       </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1259259259259267</v>
+        <v>22.35249074074073</v>
       </c>
     </row>
     <row r="38">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="F38" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>6.093290260793157e-06</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6728395061728396</v>
+        <v>-0.7623456790123457</v>
       </c>
       <c r="H38" t="n">
-        <v>6.329743910048687e-05</v>
+        <v>5.834467790818184e-06</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>27.66805555555555</v>
+        <v>14.11329629629631</v>
       </c>
     </row>
     <row r="39">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="F39" t="n">
-        <v>6.088790825143172e-05</v>
+        <v>1.312674343949274e-05</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.6759259259259258</v>
+        <v>-0.7345679012345678</v>
       </c>
       <c r="H39" t="n">
-        <v>5.856539985641123e-05</v>
+        <v>1.258746709260664e-05</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>26.60733796296294</v>
+        <v>27.45413425925926</v>
       </c>
     </row>
     <row r="40">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0002701550280446244</v>
+        <v>1.616656022567341e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6141975308641976</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0002606828218029942</v>
+        <v>1.538199871942933e-07</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>22.35249074074073</v>
+        <v>4737.355986111112</v>
       </c>
     </row>
     <row r="41">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>571</v>
+        <v>309.5</v>
       </c>
       <c r="F41" t="n">
-        <v>6.093290260793157e-06</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.7623456790123457</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H41" t="n">
-        <v>5.834467790818184e-06</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>14.11329629629631</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="42">
@@ -2298,12 +2298,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>562</v>
+        <v>46</v>
       </c>
       <c r="F42" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>2.11692997069081e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.7345679012345678</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="H42" t="n">
-        <v>1.258746709260664e-05</v>
+        <v>1.99704231749521e-08</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>27.45413425925926</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
     <row r="43">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2360,13 +2360,13 @@
         <v>610</v>
       </c>
       <c r="F43" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>1.172428960309931e-07</v>
       </c>
       <c r="G43" t="n">
         <v>-0.882716049382716</v>
       </c>
       <c r="H43" t="n">
-        <v>1.538199871942933e-07</v>
+        <v>1.114314087167554e-07</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>4737.355986111112</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="44">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>309.5</v>
+        <v>604.5</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6894111450834837</v>
+        <v>2.263896817511685e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.8657407407407407</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6820658875777864</v>
+        <v>2.154434697158797e-07</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="J44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.1967647058823534</v>
+        <v>7.033333333333337</v>
       </c>
     </row>
     <row r="45">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2447,27 +2447,27 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>289</v>
+        <v>648</v>
       </c>
       <c r="F45" t="n">
+        <v>2.920070438311818e-09</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.761122110912224e-09</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.0351851851852</v>
       </c>
     </row>
     <row r="46">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>46</v>
+        <v>648</v>
       </c>
       <c r="F46" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8580246913580247</v>
+        <v>-1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.99704231749521e-08</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.22037037037037</v>
+        <v>133.8465046296296</v>
       </c>
     </row>
     <row r="47">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2537,16 +2537,16 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="F47" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.882716049382716</v>
+        <v>-1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.114314087167554e-07</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>5.812962962962967</v>
+        <v>120.0800231481481</v>
       </c>
     </row>
     <row r="48">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2582,16 +2582,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>604.5</v>
+        <v>648</v>
       </c>
       <c r="F48" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.8657407407407407</v>
+        <v>-1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.154434697158797e-07</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>7.033333333333337</v>
+        <v>53.53109259259259</v>
       </c>
     </row>
     <row r="49">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>648</v>
+        <v>310</v>
       </c>
       <c r="F49" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.8043534959231337</v>
       </c>
       <c r="G49" t="n">
-        <v>-1</v>
+        <v>0.04320987654320985</v>
       </c>
       <c r="H49" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.7972624975694652</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="J49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>135.0351851851852</v>
+        <v>-0.2727268518518429</v>
       </c>
     </row>
     <row r="50">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>133.8465046296296</v>
+        <v>12919.49476388889</v>
       </c>
     </row>
     <row r="51">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2717,16 +2717,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>648</v>
+        <v>309.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G51" t="n">
-        <v>-1</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H51" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="J51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>120.0800231481481</v>
+        <v>-0.1967647058823534</v>
       </c>
     </row>
     <row r="52">
@@ -2748,12 +2748,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2762,16 +2762,16 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>648</v>
+        <v>388.5</v>
       </c>
       <c r="F52" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.2157244737323789</v>
       </c>
       <c r="G52" t="n">
-        <v>-1</v>
+        <v>-0.1990740740740742</v>
       </c>
       <c r="H52" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.2121596223800503</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2779,10 +2779,10 @@
         </is>
       </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>53.53109259259259</v>
+        <v>0.4601851851851855</v>
       </c>
     </row>
     <row r="53">
@@ -2793,12 +2793,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>310</v>
+        <v>417.5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.07830439278543458</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04320987654320985</v>
+        <v>-0.2885802469135803</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.07671449845681758</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2727268518518429</v>
+        <v>1.364814814814824</v>
       </c>
     </row>
     <row r="54">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>648</v>
+        <v>386.5</v>
       </c>
       <c r="F54" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>0.2524303238515103</v>
       </c>
       <c r="G54" t="n">
-        <v>-1</v>
+        <v>-0.1929012345679013</v>
       </c>
       <c r="H54" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>0.2486248966585782</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="J54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>12919.49476388889</v>
+        <v>0.9046296296296248</v>
       </c>
     </row>
     <row r="55">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>309.5</v>
+        <v>419</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6894111450834837</v>
+        <v>0.0829149018536659</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.2932098765432098</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6820658875777864</v>
+        <v>0.08129997273561756</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.1967647058823534</v>
+        <v>11.29722222222227</v>
       </c>
     </row>
     <row r="56">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>11.00743518518519</v>
       </c>
     </row>
     <row r="57">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>388.5</v>
+        <v>409</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2157244737323789</v>
+        <v>0.1210158050201267</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1990740740740742</v>
+        <v>-0.2623456790123457</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2121596223800503</v>
+        <v>0.1188311072505256</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4601851851851855</v>
+        <v>6.739564814814827</v>
       </c>
     </row>
     <row r="58">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>417.5</v>
+        <v>557</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07830439278543458</v>
+        <v>1.987997424299874e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2885802469135803</v>
+        <v>-0.7191358024691359</v>
       </c>
       <c r="H58" t="n">
-        <v>0.07671449845681758</v>
+        <v>1.907864721732255e-05</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>1.364814814814824</v>
+        <v>17.98193518518521</v>
       </c>
     </row>
     <row r="59">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>386.5</v>
+        <v>622</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2524303238515103</v>
+        <v>4.789711871151461e-08</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1929012345679013</v>
+        <v>-0.9197530864197532</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2486248966585782</v>
+        <v>4.548338411176395e-08</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9046296296296248</v>
+        <v>68.56191666666666</v>
       </c>
     </row>
     <row r="60">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3122,16 +3122,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>419</v>
+        <v>606</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0829149018536659</v>
+        <v>2.399830096728318e-07</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2932098765432098</v>
+        <v>-0.8703703703703705</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08129997273561756</v>
+        <v>2.284857699028651e-07</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         </is>
       </c>
       <c r="J60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>11.29722222222227</v>
+        <v>6741.810004629631</v>
       </c>
     </row>
     <row r="61">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>414</v>
+        <v>309.5</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1005338647219968</v>
+        <v>0.6894111450834837</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.07093425605536341</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09864761042929915</v>
+        <v>0.6820658875777864</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3187,277 +3187,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>11.00743518518519</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>409</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.1210158050201267</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-0.2623456790123457</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.1188311072505256</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6.739564814814827</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>557</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1.987997424299874e-05</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-0.7191358024691359</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1.907864721732255e-05</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J63" t="b">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>17.98193518518521</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>622</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4.789711871151461e-08</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-0.9197530864197532</v>
-      </c>
-      <c r="H64" t="n">
-        <v>4.548338411176395e-08</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J64" t="b">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>68.56191666666666</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>606</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.399830096728318e-07</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-0.8703703703703705</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2.284857699028651e-07</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J65" t="b">
-        <v>1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>6741.810004629631</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>309.5</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.6894111450834837</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-0.07093425605536341</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.6820658875777864</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
         <v>-0.1967647058823534</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>mannwhitneyu</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>289</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007113408326616479</v>
+        <v>0.003796243109817216</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4475308641975309</v>
+        <v>-0.4814814814814814</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006917271613933836</v>
+        <v>0.003685199100306695</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4416666666666647</v>
+        <v>0.4666666666666668</v>
       </c>
     </row>
     <row r="3">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103.5</v>
+        <v>117</v>
       </c>
       <c r="F3" t="n">
-        <v>1.62479325171163e-05</v>
+        <v>5.320819204107739e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="H3" t="n">
-        <v>1.554290698029134e-05</v>
+        <v>5.103120422570257e-05</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.5972222222222285</v>
+        <v>-0.5611111111111136</v>
       </c>
     </row>
     <row r="4">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="F4" t="n">
-        <v>2.060878491314584e-05</v>
+        <v>2.42211988201396e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7098765432098766</v>
+        <v>0.7021604938271605</v>
       </c>
       <c r="H4" t="n">
-        <v>1.977040408952772e-05</v>
+        <v>2.324103952062682e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.038888888888888</v>
+        <v>-1.027777777777779</v>
       </c>
     </row>
     <row r="5">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1895093944814901</v>
+        <v>0.1774313157510857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2283950617283951</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1864323930634537</v>
+        <v>0.1745013869772909</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-5.87777777777778</v>
+        <v>-6.217592592592602</v>
       </c>
     </row>
     <row r="6">
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1895262686605104</v>
+        <v>0.1716158997731329</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1864491812199812</v>
+        <v>0.1687582654196772</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-5.892430555555556</v>
+        <v>-6.214449074074082</v>
       </c>
     </row>
     <row r="7">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4685740330133489</v>
+        <v>0.5147860125085237</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="H7" t="n">
-        <v>0.462963460870333</v>
+        <v>0.5088828153535194</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.246805555555561</v>
+        <v>-3.209587962962949</v>
       </c>
     </row>
     <row r="8">
@@ -782,16 +782,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03107944569381346</v>
+        <v>0.02128732872601864</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3641975308641975</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0303701725753778</v>
+        <v>0.02077636589940443</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.640555555555551</v>
+        <v>-3.9613287037037</v>
       </c>
     </row>
     <row r="9">
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01163445170501903</v>
+        <v>0.004082955523083316</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4845679012345679</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01133439323885829</v>
+        <v>0.003965978142992611</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-9.089416666666665</v>
+        <v>-10.85241203703703</v>
       </c>
     </row>
     <row r="10">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001988977628350087</v>
+        <v>0.001055247138706311</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5216049382716049</v>
+        <v>0.5524691358024691</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00192837068649817</v>
+        <v>0.001021483086001621</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-1380.625666666665</v>
+        <v>-1513.022402777777</v>
       </c>
     </row>
     <row r="11">
@@ -962,16 +962,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>479.5</v>
+        <v>502.5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003827183649254287</v>
+        <v>0.0007912346167715557</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4799382716049383</v>
+        <v>-0.5509259259259258</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003715057741290047</v>
+        <v>0.0007646891158206878</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.023148148148147</v>
+        <v>1.136111111111111</v>
       </c>
     </row>
     <row r="13">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>364.5</v>
+        <v>370</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4186366540515651</v>
+        <v>0.3583959974010644</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.125</v>
+        <v>-0.1419753086419753</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4128442490572918</v>
+        <v>0.3531387410981843</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.002777777777776</v>
+        <v>1.129629629629633</v>
       </c>
     </row>
     <row r="14">
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1066708104522296</v>
+        <v>0.06060662615988739</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2716049382716049</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1046838410286281</v>
+        <v>0.05934920567665181</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.02037037037036882</v>
+        <v>-0.006481481481483087</v>
       </c>
     </row>
     <row r="15">
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>243</v>
+        <v>232.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1396266720916429</v>
+        <v>0.094947324227248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.2824074074074074</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1371845217075572</v>
+        <v>0.09314546775813624</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-11.5884259259259</v>
+        <v>-12.50509259259259</v>
       </c>
     </row>
     <row r="16">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1043925518872926</v>
+        <v>0.07971066598993144</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2746913580246914</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1024487548398176</v>
+        <v>0.07814670674454162</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.07203703703703</v>
+        <v>-13.00588425925926</v>
       </c>
     </row>
     <row r="17">
@@ -1187,16 +1187,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2365967689621208</v>
+        <v>0.1550035515650811</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2006172839506173</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2329826757965724</v>
+        <v>0.1523577489335416</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.038657407407385</v>
+        <v>-9.046356481481467</v>
       </c>
     </row>
     <row r="18">
@@ -1232,16 +1232,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1005338647219968</v>
+        <v>0.05999734769084296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.3179012345679012</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09864761042929915</v>
+        <v>0.05875959218219303</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>-5.802018518518516</v>
+        <v>-6.37035648148148</v>
       </c>
     </row>
     <row r="19">
@@ -1277,16 +1277,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" t="n">
-        <v>5.58618703577025e-06</v>
+        <v>4.690517337587929e-06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7654320987654322</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="H19" t="n">
-        <v>5.348038683522629e-06</v>
+        <v>4.489098488601043e-06</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>-26.00312037037034</v>
+        <v>-27.79699999999994</v>
       </c>
     </row>
     <row r="20">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004082955523083316</v>
+        <v>0.00224929649066349</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4845679012345679</v>
+        <v>0.5154320987654322</v>
       </c>
       <c r="H20" t="n">
-        <v>0.003965978142992611</v>
+        <v>0.002181441590167334</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>-2747.835587962965</v>
+        <v>-2936.567949074073</v>
       </c>
     </row>
     <row r="21">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>368</v>
+        <v>371.5</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4206524329145052</v>
+        <v>0.3839318278056556</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1358024691358024</v>
+        <v>-0.146604938271605</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4153321949433842</v>
+        <v>0.378893364225533</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.601851851851853</v>
+        <v>0.674074074074074</v>
       </c>
     </row>
     <row r="23">
@@ -1457,16 +1457,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>205.5</v>
+        <v>205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02532331028336432</v>
+        <v>0.0209255287683412</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3657407407407407</v>
+        <v>0.3672839506172839</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02470970160400244</v>
+        <v>0.02039127183672607</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.7388888888888872</v>
+        <v>-0.6398148148148124</v>
       </c>
     </row>
     <row r="24">
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>216.5</v>
+        <v>214.5</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0480074779741179</v>
+        <v>0.04378610867337551</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3317901234567902</v>
+        <v>0.3379629629629629</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04697317872889967</v>
+        <v>0.0428282624285755</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.340740740740742</v>
+        <v>-1.31388888888889</v>
       </c>
     </row>
     <row r="25">
@@ -1547,16 +1547,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7901842868705102</v>
+        <v>0.9050605990514495</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.02160493827160492</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7831271046098796</v>
+        <v>0.8977962098319121</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.881018518518545</v>
+        <v>-4.812037037037044</v>
       </c>
     </row>
     <row r="26">
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7901881922098288</v>
+        <v>0.8760567733700252</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04629629629629628</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="H26" t="n">
-        <v>0.783131134596324</v>
+        <v>0.8688301969253137</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-6.075449074074072</v>
+        <v>-5.023847222222216</v>
       </c>
     </row>
     <row r="27">
@@ -1637,16 +1637,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7342603423969764</v>
+        <v>0.8760567733700252</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05864197530864201</v>
+        <v>0.02777777777777779</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7273607010490569</v>
+        <v>0.8688301969253137</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-4.279842592592587</v>
+        <v>-3.450828703703706</v>
       </c>
     </row>
     <row r="28">
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3935223899263479</v>
+        <v>0.4463585161606162</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1450617283950617</v>
+        <v>0.1296296296296297</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3884555497257653</v>
+        <v>0.4408998098859007</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.655694444444443</v>
+        <v>-2.950481481481475</v>
       </c>
     </row>
     <row r="29">
@@ -1727,16 +1727,16 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.6530275885123809</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.04320987654320985</v>
+        <v>-0.07716049382716039</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.6464245472121118</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>17.79075925925926</v>
+        <v>19.33813888888889</v>
       </c>
     </row>
     <row r="30">
@@ -1772,16 +1772,16 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04076053620183384</v>
+        <v>0.04854570503465683</v>
       </c>
       <c r="G30" t="n">
-        <v>0.345679012345679</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03986622195092659</v>
+        <v>0.04750893270660872</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>-1180.509990740742</v>
+        <v>-963.9319907407407</v>
       </c>
     </row>
     <row r="31">
@@ -1862,16 +1862,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6879485924171306</v>
+        <v>0.7158646283958379</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.06790123456790131</v>
+        <v>-0.06172839506172845</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6810864563418655</v>
+        <v>0.7089071359045345</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.2546296296296298</v>
       </c>
     </row>
     <row r="33">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>400.5</v>
+        <v>432.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1573995384208263</v>
+        <v>0.04331093597596605</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.2361111111111112</v>
+        <v>-0.3348765432098766</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1546858313716771</v>
+        <v>0.04235104417933013</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
         </is>
       </c>
       <c r="J33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3648148148148103</v>
+        <v>0.4064814814814781</v>
       </c>
     </row>
     <row r="34">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7198789070337386</v>
+        <v>0.4777428276714474</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.06172839506172845</v>
+        <v>-0.1203703703703705</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7130104102845825</v>
+        <v>0.472043834907994</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1259259259259267</v>
+        <v>0.1518518518518519</v>
       </c>
     </row>
     <row r="35">
@@ -1997,16 +1997,16 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F35" t="n">
-        <v>6.579704265068806e-05</v>
+        <v>5.209092727288747e-05</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.6728395061728396</v>
+        <v>-0.6820987654320987</v>
       </c>
       <c r="H35" t="n">
-        <v>6.329743910048687e-05</v>
+        <v>5.008788122403878e-05</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>27.66805555555555</v>
+        <v>27.96342592592595</v>
       </c>
     </row>
     <row r="36">
@@ -2042,16 +2042,16 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F36" t="n">
-        <v>6.088790825143172e-05</v>
+        <v>4.815798946078741e-05</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.6759259259259258</v>
+        <v>-0.6851851851851851</v>
       </c>
       <c r="H36" t="n">
-        <v>5.856539985641123e-05</v>
+        <v>4.629873678569515e-05</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>26.60733796296294</v>
+        <v>26.8229351851852</v>
       </c>
     </row>
     <row r="37">
@@ -2087,16 +2087,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0002701550280446244</v>
+        <v>0.0003113649793192373</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.6141975308641976</v>
+        <v>-0.6080246913580247</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0002606828218029942</v>
+        <v>0.0003005435766599249</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>22.35249074074073</v>
+        <v>22.2637546296296</v>
       </c>
     </row>
     <row r="38">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F38" t="n">
-        <v>6.093290260793157e-06</v>
+        <v>1.019339788703042e-05</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7623456790123457</v>
+        <v>-0.7438271604938271</v>
       </c>
       <c r="H38" t="n">
-        <v>5.834467790818184e-06</v>
+        <v>9.769893797335764e-06</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>14.11329629629631</v>
+        <v>14.35218055555556</v>
       </c>
     </row>
     <row r="39">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F39" t="n">
-        <v>1.312674343949274e-05</v>
+        <v>6.644275977904411e-06</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.7345679012345678</v>
+        <v>-0.7592592592592593</v>
       </c>
       <c r="H39" t="n">
-        <v>1.258746709260664e-05</v>
+        <v>6.363079324456848e-06</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>27.45413425925926</v>
+        <v>28.70612037037036</v>
       </c>
     </row>
     <row r="40">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F40" t="n">
-        <v>1.616656022567341e-07</v>
+        <v>4.29807925114501e-07</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.882716049382716</v>
+        <v>-0.8518518518518519</v>
       </c>
       <c r="H40" t="n">
-        <v>1.538199871942933e-07</v>
+        <v>4.096169778302969e-07</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>4737.355986111112</v>
+        <v>4781.887222222222</v>
       </c>
     </row>
     <row r="41">
@@ -2312,16 +2312,16 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>46</v>
+        <v>43.5</v>
       </c>
       <c r="F42" t="n">
-        <v>2.11692997069081e-08</v>
+        <v>1.5788836966277e-08</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8580246913580247</v>
+        <v>0.8657407407407407</v>
       </c>
       <c r="H42" t="n">
-        <v>1.99704231749521e-08</v>
+        <v>1.488724861949592e-08</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.22037037037037</v>
+        <v>-1.229629629629631</v>
       </c>
     </row>
     <row r="43">
@@ -2357,16 +2357,16 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F43" t="n">
-        <v>1.172428960309931e-07</v>
+        <v>6.698394003504188e-08</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.882716049382716</v>
+        <v>-0.8950617283950617</v>
       </c>
       <c r="H43" t="n">
-        <v>1.114314087167554e-07</v>
+        <v>6.358897719737055e-08</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>5.812962962962967</v>
+        <v>5.731481481481485</v>
       </c>
     </row>
     <row r="44">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>604.5</v>
+        <v>600</v>
       </c>
       <c r="F44" t="n">
-        <v>2.263896817511685e-07</v>
+        <v>3.182896018248396e-07</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.8657407407407407</v>
+        <v>-0.8518518518518519</v>
       </c>
       <c r="H44" t="n">
-        <v>2.154434697158797e-07</v>
+        <v>3.030174139514955e-07</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>7.033333333333337</v>
+        <v>6.961111111111112</v>
       </c>
     </row>
     <row r="45">
@@ -2450,13 +2450,13 @@
         <v>648</v>
       </c>
       <c r="F45" t="n">
-        <v>2.920070438311818e-09</v>
+        <v>2.91805720444704e-09</v>
       </c>
       <c r="G45" t="n">
         <v>-1</v>
       </c>
       <c r="H45" t="n">
-        <v>2.761122110912224e-09</v>
+        <v>2.759212723787764e-09</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>135.0351851851852</v>
+        <v>135.9819444444444</v>
       </c>
     </row>
     <row r="46">
@@ -2512,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>133.8465046296296</v>
+        <v>134.9634907407407</v>
       </c>
     </row>
     <row r="47">
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>120.0800231481481</v>
+        <v>120.2628888888889</v>
       </c>
     </row>
     <row r="48">
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>53.53109259259259</v>
+        <v>53.56146759259259</v>
       </c>
     </row>
     <row r="49">
@@ -2627,16 +2627,16 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8043534959231337</v>
+        <v>0.77609187522854</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04320987654320985</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7972624975694652</v>
+        <v>0.769070960225267</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.2727268518518429</v>
+        <v>-2.04636574074074</v>
       </c>
     </row>
     <row r="50">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>12919.49476388889</v>
+        <v>12843.35945833333</v>
       </c>
     </row>
     <row r="51">
@@ -2762,16 +2762,16 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>388.5</v>
+        <v>406.5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2157244737323789</v>
+        <v>0.1127262305740072</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1990740740740742</v>
+        <v>-0.2546296296296295</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2121596223800503</v>
+        <v>0.1105493686517926</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4601851851851855</v>
+        <v>0.5351851851851883</v>
       </c>
     </row>
     <row r="53">
@@ -2807,16 +2807,16 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>417.5</v>
+        <v>435.5</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07830439278543458</v>
+        <v>0.03388501915684748</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.2885802469135803</v>
+        <v>-0.3441358024691359</v>
       </c>
       <c r="H53" t="n">
-        <v>0.07671449845681758</v>
+        <v>0.03308969221757466</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="J53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>1.364814814814824</v>
+        <v>1.542592592592598</v>
       </c>
     </row>
     <row r="54">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>386.5</v>
+        <v>387.5</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2524303238515103</v>
+        <v>0.2442402349565552</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1929012345679013</v>
+        <v>-0.1959876543209877</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2486248966585782</v>
+        <v>0.2405170936277354</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9046296296296248</v>
+        <v>1.007407407407406</v>
       </c>
     </row>
     <row r="55">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0829149018536659</v>
+        <v>0.04854570503465683</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2932098765432098</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08129997273561756</v>
+        <v>0.04750893270660872</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>11.29722222222227</v>
+        <v>13.60138888888895</v>
       </c>
     </row>
     <row r="56">
@@ -2942,16 +2942,16 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1005338647219968</v>
+        <v>0.06253775715254423</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2777777777777777</v>
+        <v>-0.3148148148148149</v>
       </c>
       <c r="H56" t="n">
-        <v>0.09864761042929915</v>
+        <v>0.0612566469679658</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>11.00743518518519</v>
+        <v>13.31893055555554</v>
       </c>
     </row>
     <row r="57">
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1210158050201267</v>
+        <v>0.06788568095444991</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2623456790123457</v>
+        <v>-0.308641975308642</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1188311072505256</v>
+        <v>0.0665146380756426</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>6.739564814814827</v>
+        <v>9.128879629629637</v>
       </c>
     </row>
     <row r="58">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F58" t="n">
-        <v>1.987997424299874e-05</v>
+        <v>2.157979248336353e-05</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.7191358024691359</v>
+        <v>-0.7160493827160495</v>
       </c>
       <c r="H58" t="n">
-        <v>1.907864721732255e-05</v>
+        <v>2.071328803731416e-05</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>17.98193518518521</v>
+        <v>18.61950462962965</v>
       </c>
     </row>
     <row r="59">
@@ -3077,16 +3077,16 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="F59" t="n">
-        <v>4.789711871151461e-08</v>
+        <v>2.17521601125654e-07</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.9197530864197532</v>
+        <v>-0.8734567901234569</v>
       </c>
       <c r="H59" t="n">
-        <v>4.548338411176395e-08</v>
+        <v>2.070666675122053e-07</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>68.56191666666666</v>
+        <v>66.47522222222221</v>
       </c>
     </row>
     <row r="60">
@@ -3122,16 +3122,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F60" t="n">
-        <v>2.399830096728318e-07</v>
+        <v>6.922988977550939e-07</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.8703703703703705</v>
+        <v>-0.8364197530864197</v>
       </c>
       <c r="H60" t="n">
-        <v>2.284857699028651e-07</v>
+        <v>6.603145081792618e-07</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>6741.810004629631</v>
+        <v>6759.569851851855</v>
       </c>
     </row>
     <row r="61">

--- a/Tester Results/TEST_REC_ORDER.xlsx
+++ b/Tester Results/TEST_REC_ORDER.xlsx
@@ -908,7 +908,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -917,16 +917,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>354</v>
+        <v>255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.197458292008364</v>
+        <v>0.2087776689481327</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2249134948096885</v>
+        <v>0.2129629629629629</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.2054743007580616</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3.896764705882351</v>
+        <v>-4.900739583333333</v>
       </c>
     </row>
     <row r="12">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>354</v>
+        <v>234</v>
       </c>
       <c r="F21" t="n">
-        <v>0.197458292008364</v>
+        <v>0.1005338647219968</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2249134948096885</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.09864761042929915</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.896764705882351</v>
+        <v>-10.23192245370369</v>
       </c>
     </row>
     <row r="22">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F31" t="n">
-        <v>0.197458292008364</v>
+        <v>0.8472184701048213</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2249134948096885</v>
+        <v>0.03395061728395066</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1940064823252164</v>
+        <v>0.840039185127807</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>3.896764705882351</v>
+        <v>-4.059298611111117</v>
       </c>
     </row>
     <row r="32">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2267,16 +2267,16 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>309.5</v>
+        <v>542</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6894111450834837</v>
+        <v>6.579704265068806e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.6728395061728396</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6820658875777864</v>
+        <v>6.329743910048687e-05</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.1967647058823534</v>
+        <v>22.85057407407407</v>
       </c>
     </row>
     <row r="42">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2717,16 +2717,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>309.5</v>
+        <v>648</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6894111450834837</v>
+        <v>2.920070438311818e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6820658875777864</v>
+        <v>2.761122110912224e-09</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="J51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.1967647058823534</v>
+        <v>111.1924479166667</v>
       </c>
     </row>
     <row r="52">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>strength_avg</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3167,16 +3167,16 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>309.5</v>
+        <v>446</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6894111450834837</v>
+        <v>0.02578387061773322</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.07093425605536341</v>
+        <v>-0.3765432098765431</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6820658875777864</v>
+        <v>0.02518024006762206</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="J61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.1967647058823534</v>
+        <v>13.66717592592593</v>
       </c>
     </row>
   </sheetData>
